--- a/Documentation/AssetList.xlsx
+++ b/Documentation/AssetList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katarinatretter/Documents/GitHub/IGME671/igme671FinalProject/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6775A83A-FC01-064A-B98D-413197447C55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F293C68B-39B4-0044-B69D-450ACBCF474E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{1AC97BA3-372B-A34D-A085-5D3F8318D120}"/>
   </bookViews>

--- a/Documentation/AssetList.xlsx
+++ b/Documentation/AssetList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katarinatretter/Documents/GitHub/IGME671/igme671FinalProject/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F293C68B-39B4-0044-B69D-450ACBCF474E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADCE40F-09FE-F348-9FF4-10C0E44FEAC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{1AC97BA3-372B-A34D-A085-5D3F8318D120}"/>
+    <workbookView xWindow="0" yWindow="10740" windowWidth="16800" windowHeight="10260" xr2:uid="{1AC97BA3-372B-A34D-A085-5D3F8318D120}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>Description</t>
   </si>
@@ -54,18 +54,6 @@
     <t>playerDefeat</t>
   </si>
   <si>
-    <t>demonWalk</t>
-  </si>
-  <si>
-    <t>demonAttack</t>
-  </si>
-  <si>
-    <t>demonDamage</t>
-  </si>
-  <si>
-    <t>demonDefeat</t>
-  </si>
-  <si>
     <t>rangedWalk</t>
   </si>
   <si>
@@ -147,18 +135,6 @@
     <t>player dies</t>
   </si>
   <si>
-    <t>demon walking on platform</t>
-  </si>
-  <si>
-    <t>demon attacking with melee</t>
-  </si>
-  <si>
-    <t>demon takes damage</t>
-  </si>
-  <si>
-    <t>demon dies</t>
-  </si>
-  <si>
     <t>ranged enemy walking on platform</t>
   </si>
   <si>
@@ -234,12 +210,6 @@
     <t>aghhh</t>
   </si>
   <si>
-    <t>demon hurt sounds</t>
-  </si>
-  <si>
-    <t>dmeon scream</t>
-  </si>
-  <si>
     <t>whoosh of projectile</t>
   </si>
   <si>
@@ -280,6 +250,9 @@
   </si>
   <si>
     <t>player constant heartbeat get's louder as player health drops</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -317,7 +290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,12 +300,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -391,7 +358,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -400,75 +367,67 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="6" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="5" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="8" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="6" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
-    <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
-    <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
-    <cellStyle name="20% - Accent4" xfId="6" builtinId="42"/>
-    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
-    <cellStyle name="20% - Accent6" xfId="8" builtinId="50"/>
+    <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
+    <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="20% - Accent6" xfId="7" builtinId="50"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
@@ -783,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FAEC0A-8FA9-B842-819A-74AAE62CF2E8}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -800,532 +759,460 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="22" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="C14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="C15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="C17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
+      <c r="C25" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Documentation/AssetList.xlsx
+++ b/Documentation/AssetList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katarinatretter/Documents/GitHub/IGME671/igme671FinalProject/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CADCE40F-09FE-F348-9FF4-10C0E44FEAC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B315B69-29D0-7548-A785-E75BDCB127C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10740" windowWidth="16800" windowHeight="10260" xr2:uid="{1AC97BA3-372B-A34D-A085-5D3F8318D120}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{1AC97BA3-372B-A34D-A085-5D3F8318D120}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FAEC0A-8FA9-B842-819A-74AAE62CF2E8}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
